--- a/ongules.xlsx
+++ b/ongules.xlsx
@@ -2449,7 +2449,7 @@
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="inlineStr">
         <is>
-          <t>Editée le 2024-12-09</t>
+          <t>Editée le 2025-03-13</t>
         </is>
       </c>
       <c r="B49" s="2"/>
